--- a/Placement Documents/PGCE 11-16 Placement 1 Attendance Sheet 2020-21.xlsx
+++ b/Placement Documents/PGCE 11-16 Placement 1 Attendance Sheet 2020-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-programmes\14-placements\2020-21\Secondary &amp; Post-16 ITE\Student Documents\Attendance Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\My Documents\GitHub\TeacherTraining\Placement Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34113D8-9490-41E1-826E-B48E1F8B95E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D34113D8-9490-41E1-826E-B48E1F8B95E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DE5E1EB-BEA3-49D1-BF96-E5180E5E7AA6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>Date of Absence</t>
   </si>
@@ -212,12 +212,24 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Daniel White</t>
+  </si>
+  <si>
+    <t>Dover Christ Church Academy</t>
+  </si>
+  <si>
+    <t>CT16 2EG</t>
+  </si>
+  <si>
+    <t>CT1 1PP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -451,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -465,9 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,6 +587,51 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,51 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,481 +1079,554 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:8" ht="59.45" customHeight="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="F2" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="B4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1">
+      <c r="A5" s="23"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="H6" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="H7" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="H8" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="H9" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="H10" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="33" t="s">
+      <c r="F11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="20" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="59" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-    </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
-    </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="22.9" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+    </row>
+    <row r="28" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.15" customHeight="1">
+      <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="56"/>
-    </row>
-    <row r="31" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="H30" s="47"/>
+    </row>
+    <row r="31" spans="1:8" ht="25.15" customHeight="1">
+      <c r="A31" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="A31:H31"/>
@@ -1553,13 +1635,6 @@
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1576,7 +1651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1590,7 +1665,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
